--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_13-48.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_13-48.xlsx
@@ -44,6 +44,12 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>ARCOXIA 90 MG 14 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
@@ -53,18 +59,21 @@
     <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
+    <t>CAL-MAG D CAPS</t>
+  </si>
+  <si>
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
     <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -116,6 +131,9 @@
     <t>PERLOC 40MG 14 F.C.TAB.</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -173,7 +191,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-1:0</t>
+    <t>-2:0</t>
   </si>
   <si>
     <t>سويت كوكو</t>
@@ -842,11 +860,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>71.5</v>
+        <v>119.5</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -868,11 +886,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>137</v>
+        <v>71.5</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -888,13 +906,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
@@ -920,7 +938,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
@@ -940,13 +958,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
@@ -966,17 +984,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -992,13 +1010,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
@@ -1018,13 +1036,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
@@ -1036,7 +1054,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1044,17 +1062,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1062,7 +1080,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1070,17 +1088,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1088,7 +1106,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1096,17 +1114,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1114,7 +1132,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1122,17 +1140,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.040000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1140,7 +1158,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1148,17 +1166,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1166,7 +1184,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1174,13 +1192,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1192,7 +1210,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1200,13 +1218,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>136.5</v>
+        <v>37</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1218,7 +1236,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1226,17 +1244,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>1</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1244,7 +1262,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1258,7 +1276,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>68.25</v>
+        <v>186</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
@@ -1270,7 +1288,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1278,17 +1296,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1296,7 +1314,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1304,13 +1322,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
@@ -1322,7 +1340,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1330,17 +1348,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>14.1</v>
+        <v>136.5</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1348,7 +1366,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1356,13 +1374,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1374,7 +1392,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1382,13 +1400,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>140</v>
+        <v>68.25</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1400,7 +1418,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1408,13 +1426,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1426,7 +1444,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1434,17 +1452,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1452,7 +1470,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1466,7 +1484,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1478,7 +1496,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1486,17 +1504,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>5</v>
+        <v>14.1</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>2</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1504,7 +1522,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1512,13 +1530,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>61.109999999999999</v>
+        <v>28</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1530,7 +1548,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1538,13 +1556,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>23.5</v>
+        <v>140</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1556,7 +1574,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1564,13 +1582,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1582,7 +1600,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1590,17 +1608,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1608,7 +1626,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1616,13 +1634,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1634,7 +1652,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1642,17 +1660,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1660,7 +1678,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1668,51 +1686,207 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>61.109999999999999</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="K39" s="11">
-        <v>2385.96</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="12">
+    <row r="39" ht="24.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c t="s" r="B39" s="7">
+        <v>55</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c t="s" r="H39" s="8">
+        <v>56</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
+        <v>57</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>58</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>15</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
+        <v>59</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
         <v>60</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c t="s" r="F40" s="13">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>8</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c t="s" r="B42" s="7">
         <v>61</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
-      <c t="s" r="I40" s="15">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c t="s" r="H42" s="8">
         <v>62</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9">
+        <v>25</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" customHeight="1">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
+        <v>63</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
+        <v>64</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>25</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
+        <v>65</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
+        <v>58</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>20</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="26.25" customHeight="1">
+      <c r="K45" s="11">
+        <v>2704.46</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="12">
+        <v>66</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c t="s" r="F46" s="13">
+        <v>67</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c t="s" r="I46" s="15">
+        <v>68</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="134">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1825,10 +1999,28 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:N46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
